--- a/sd-update-system-identifier-orga/ig/StructureDefinition-ror-coordinate-reliability.xlsx
+++ b/sd-update-system-identifier-orga/ig/StructureDefinition-ror-coordinate-reliability.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T09:03:30+00:00</t>
+    <t>2024-04-11T09:15:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-update-system-identifier-orga/ig/StructureDefinition-ror-coordinate-reliability.xlsx
+++ b/sd-update-system-identifier-orga/ig/StructureDefinition-ror-coordinate-reliability.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T09:15:06+00:00</t>
+    <t>2024-04-11T09:20:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
